--- a/NSGA-II_results/RSU_revenue_results.xlsx
+++ b/NSGA-II_results/RSU_revenue_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD63F0-9D42-4CE8-92E4-BD6B8D03D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4466B5-A77F-45E2-A778-71B7A9BA4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{F0981414-E376-4B85-87ED-8F1A435CE1E2}"/>
   </bookViews>
